--- a/DragPrediction/Data/Drag Values.xlsx
+++ b/DragPrediction/Data/Drag Values.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Isolated Vehicle</t>
   </si>
@@ -95,23 +95,59 @@
     <t xml:space="preserve">Frontbody Half </t>
   </si>
   <si>
-    <t>Opt. Front Pred.</t>
-  </si>
-  <si>
-    <t>Opt. Base Pred.</t>
-  </si>
-  <si>
     <t>Pressure Drag Only</t>
   </si>
   <si>
     <t>Without Side Mirrors and Wheels</t>
+  </si>
+  <si>
+    <t>Forebody Diff.</t>
+  </si>
+  <si>
+    <t>Base Diff.</t>
+  </si>
+  <si>
+    <t>Forebody Pref. %</t>
+  </si>
+  <si>
+    <t>Base Pred. %</t>
+  </si>
+  <si>
+    <t>Wheels Contribution</t>
+  </si>
+  <si>
+    <t>Side Mirrors</t>
+  </si>
+  <si>
+    <t>Front 0.5L Pressure</t>
+  </si>
+  <si>
+    <t>Front 0.5L Shear</t>
+  </si>
+  <si>
+    <t>Front 0.75L Pressure</t>
+  </si>
+  <si>
+    <t>Front 0.75L Shear</t>
+  </si>
+  <si>
+    <t>Front 1L Pressure</t>
+  </si>
+  <si>
+    <t>Front 1L Shear</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>Follower</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,15 +170,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +196,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -183,7 +218,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,9 +251,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,8 +263,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -252,6 +306,1979 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Leader</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.179311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8163790000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19678580000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8377429999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0EC-4B67-A564-6F79601CC1C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.19281613183164478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1651030097274838E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22181924782904852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2574417014229945E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24044158996178402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2885008662342237E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0EC-4B67-A564-6F79601CC1C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.19962061190962913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2193815213322145E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22889174969082135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3114976081985381E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24752443777985578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.34235742140961E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A0EC-4B67-A564-6F79601CC1C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="559858136"/>
+        <c:axId val="385987352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="559858136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385987352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="385987352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559858136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Follower</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$21:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.25159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4219999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2305893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.460176E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.217194</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.450921E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BBF1-4D61-8E1E-317DC67046A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$21:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.27335073689667821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6536669806897555E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25434677640231279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7086164567367899E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24320792066068198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7082589634209581E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BBF1-4D61-8E1E-317DC67046A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$21:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.28265674837905447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7063722021030447E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26313247721902649</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7629316024036281E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25176775993751233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7635436255689191E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BBF1-4D61-8E1E-317DC67046A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="6639648"/>
+        <c:axId val="613804440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="6639648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613804440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="613804440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6639648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,10 +2545,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,29 +2556,42 @@
     <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -562,48 +2602,82 @@
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>24</v>
+      <c r="L2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>0.21641569999999999</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>2.8589300000000002E-2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14">
         <f>5.087636/(0.5*1.18415*13.4112^2*1.151455)</f>
         <v>4.1491301670347744E-2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="I3" s="15">
         <f>21.44912/(0.5*1.18415*13.4112^2*1.151455)</f>
         <v>0.17492444594768361</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="J3" s="21">
+        <v>3.2162181938026856E-2</v>
+      </c>
+      <c r="K3" s="8">
+        <v>8.9349429850081208E-2</v>
+      </c>
+      <c r="L3" s="9">
+        <f>(H3-J3)/H3*100</f>
+        <v>22.48451930103715</v>
+      </c>
+      <c r="M3" s="9">
+        <f>(I3-K3)/I3*100</f>
+        <v>48.921130282268365</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -613,24 +2687,52 @@
       <c r="C4" s="4">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="13">
+        <f>5.57/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>4.3816131831644782E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <f>0.5404/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>4.2510300972748369E-3</v>
+      </c>
+      <c r="F4" s="13">
+        <f>0.865/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>6.8044800779843333E-3</v>
+      </c>
+      <c r="G4" s="13">
+        <f>0.069/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>5.4278511604730528E-4</v>
+      </c>
+      <c r="H4" s="10">
         <f>5.524849/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>4.3460953704475912E-2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="I4" s="10">
         <f>13.42/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>0.10556777184572226</v>
       </c>
-      <c r="F4" s="4">
-        <v>1.66E-2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="J4" s="4">
+        <v>3.15E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="L4" s="10">
+        <f>(H4-J4)/H4*100</f>
+        <v>27.521148720774825</v>
+      </c>
+      <c r="M4" s="10">
+        <f>(I4-K4)/I4*100</f>
+        <v>62.488551849070163</v>
+      </c>
+      <c r="N4" s="17">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="O4" s="17">
+        <v>0.33300000000000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -640,264 +2742,667 @@
       <c r="C5" s="4">
         <v>2.4219999999999998E-2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="13">
+        <f>2.765/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>2.1750736896678245E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <f>0.2945/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>2.3166698068975561E-3</v>
+      </c>
+      <c r="F5" s="13">
+        <f>1.183/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>9.3060114823762616E-3</v>
+      </c>
+      <c r="G5" s="13">
+        <f>0.067/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>5.2705221413289053E-4</v>
+      </c>
+      <c r="H5" s="10">
         <f>12.694/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>9.9856728450789745E-2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="I5" s="10">
         <f>19.29/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>0.15174383896452923</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="J5" s="4">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="L5" s="10">
+        <f>(H5-J5)/H5*100</f>
+        <v>27.796553002904055</v>
+      </c>
+      <c r="M5" s="10">
+        <f>(I5-K5)/I5*100</f>
+        <v>41.019022181901562</v>
+      </c>
+      <c r="N5" s="17">
+        <v>7.9500000000000005E-3</v>
+      </c>
+      <c r="O5" s="17">
+        <v>7.1000000000000002E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>0.179311</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>2.8163790000000001E-2</v>
       </c>
       <c r="D6" s="13">
+        <f>5.403739/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>4.250824782904853E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <f>0.5606883/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>4.4106270142299465E-3</v>
+      </c>
+      <c r="F6" s="13">
+        <f>0.8990715/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>7.0725018617728225E-3</v>
+      </c>
+      <c r="G6" s="13">
+        <f>0.06871702/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>5.4055906775543464E-4</v>
+      </c>
+      <c r="H6" s="12">
         <f>5.277335/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>4.1513896962253702E-2</v>
       </c>
-      <c r="E6" s="13">
+      <c r="I6" s="12">
         <f>17.51706/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>0.13779709340445809</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="J6" s="4">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="L6" s="10">
+        <f>(H6-J6)/H6*100</f>
+        <v>28.939458449726551</v>
+      </c>
+      <c r="M6" s="10">
+        <f>(I6-K6)/I6*100</f>
+        <v>54.861166906160832</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="O6" s="17">
+        <v>2.5000000000000001E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>0.2305893</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>2.460176E-2</v>
       </c>
       <c r="D7" s="13">
+        <f>3.020101/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>2.3757476402312787E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <f>0.3158228/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>2.4844045673678965E-3</v>
+      </c>
+      <c r="F7" s="13">
+        <f>1.116857/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>8.7857008167136971E-3</v>
+      </c>
+      <c r="G7" s="13">
+        <f>0.06904657/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>5.4315145666838233E-4</v>
+      </c>
+      <c r="H7" s="12">
         <f>10.19966/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>8.0235125170189228E-2</v>
       </c>
-      <c r="E7" s="13">
+      <c r="I7" s="12">
         <f>19.11334/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>0.150354151738429</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="J7" s="4">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="K7" s="4">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="L7" s="10">
+        <f>(H7-J7)/H7*100</f>
+        <v>28.709527306561437</v>
+      </c>
+      <c r="M7" s="10">
+        <f>(I7-K7)/I7*100</f>
+        <v>42.070106483306297</v>
+      </c>
+      <c r="N7" s="17">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="O7" s="17">
+        <v>3.6999999999999998E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>0.19678580000000001</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>2.8377429999999999E-2</v>
       </c>
       <c r="D8" s="13">
+        <f>5.549617/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>4.3655789961784021E-2</v>
+      </c>
+      <c r="E8" s="13">
+        <f>0.573013/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>4.5075786623422391E-3</v>
+      </c>
+      <c r="F8" s="13">
+        <f>0.9003867/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>7.0828478180717412E-3</v>
+      </c>
+      <c r="G8" s="13">
+        <f>0.0684636/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>5.3856555175385915E-4</v>
+      </c>
+      <c r="H8" s="12">
         <f>5.280948/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>4.1542318449562091E-2</v>
       </c>
-      <c r="E8" s="13">
+      <c r="I8" s="12">
         <f>19.73488/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>0.15524346566637162</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="J8" s="4">
+        <v>2.92E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="L8" s="10">
+        <f>(H8-J8)/H8*100</f>
+        <v>29.710230218728185</v>
+      </c>
+      <c r="M8" s="10">
+        <f>(I8-K8)/I8*100</f>
+        <v>52.332937375263931</v>
+      </c>
+      <c r="N8" s="18">
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="O8" s="17">
+        <v>2E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>0.217194</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>2.450921E-2</v>
       </c>
       <c r="D9" s="13">
+        <f>3.306945/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>2.6013920660681963E-2</v>
+      </c>
+      <c r="E9" s="13">
+        <f>0.3271335/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>2.5733796342095813E-3</v>
+      </c>
+      <c r="F9" s="13">
+        <f>1.088145/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>8.5598392768303604E-3</v>
+      </c>
+      <c r="G9" s="13">
+        <f>0.07027904/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>5.5284662147961165E-4</v>
+      </c>
+      <c r="H9" s="12">
         <f>8.510664/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>6.694872096926989E-2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="I9" s="12">
         <f>19.0995/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>0.15024528005718124</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="J9" s="4">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L9" s="10">
+        <f>(H9-J9)/H9*100</f>
+        <v>30.394488012116238</v>
+      </c>
+      <c r="M9" s="10">
+        <f>(I9-K9)/I9*100</f>
+        <v>42.094686790234597</v>
+      </c>
+      <c r="N9" s="17">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="O9" s="17">
+        <v>3.3E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="B20" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="11">
+        <f>B4</f>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="C21" s="11">
+        <f>B4+D4</f>
+        <v>0.19281613183164478</v>
+      </c>
+      <c r="D21" s="11">
+        <f>B4+D4+F4</f>
+        <v>0.19962061190962913</v>
+      </c>
+      <c r="E21" s="11">
+        <f>B5</f>
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="F21" s="11">
+        <f>B5+D5</f>
+        <v>0.27335073689667821</v>
+      </c>
+      <c r="G21" s="11">
+        <f>B5+D5+F5</f>
+        <v>0.28265674837905447</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="11">
+        <f>C4</f>
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="C22" s="11">
+        <f>C4+E4</f>
+        <v>3.1651030097274838E-2</v>
+      </c>
+      <c r="D22" s="11">
+        <f>C4+E4+G4</f>
+        <v>3.2193815213322145E-2</v>
+      </c>
+      <c r="E22" s="11">
+        <f>C5</f>
+        <v>2.4219999999999998E-2</v>
+      </c>
+      <c r="F22" s="11">
+        <f>C5+E5</f>
+        <v>2.6536669806897555E-2</v>
+      </c>
+      <c r="G22" s="11">
+        <f>C5+E5+G5</f>
+        <v>2.7063722021030447E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="11">
+        <f>B6</f>
+        <v>0.179311</v>
+      </c>
+      <c r="C23" s="11">
+        <f>B6+D6</f>
+        <v>0.22181924782904852</v>
+      </c>
+      <c r="D23" s="11">
+        <f>B6+D6+F6</f>
+        <v>0.22889174969082135</v>
+      </c>
+      <c r="E23" s="11">
+        <f>B7</f>
+        <v>0.2305893</v>
+      </c>
+      <c r="F23" s="11">
+        <f>B7+D7</f>
+        <v>0.25434677640231279</v>
+      </c>
+      <c r="G23" s="11">
+        <f>B7+D7+F7</f>
+        <v>0.26313247721902649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="11">
+        <f>C6</f>
+        <v>2.8163790000000001E-2</v>
+      </c>
+      <c r="C24" s="11">
+        <f>C6+E6</f>
+        <v>3.2574417014229945E-2</v>
+      </c>
+      <c r="D24" s="11">
+        <f>C6+E6+G6</f>
+        <v>3.3114976081985381E-2</v>
+      </c>
+      <c r="E24" s="11">
+        <f>C7</f>
+        <v>2.460176E-2</v>
+      </c>
+      <c r="F24" s="11">
+        <f>C7+E7</f>
+        <v>2.7086164567367899E-2</v>
+      </c>
+      <c r="G24" s="11">
+        <f>C7+E7+G7</f>
+        <v>2.7629316024036281E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="11">
+        <f>B8</f>
+        <v>0.19678580000000001</v>
+      </c>
+      <c r="C25" s="11">
+        <f>B8+D8</f>
+        <v>0.24044158996178402</v>
+      </c>
+      <c r="D25" s="11">
+        <f>B8+D8+F8</f>
+        <v>0.24752443777985578</v>
+      </c>
+      <c r="E25" s="11">
+        <f>B9</f>
+        <v>0.217194</v>
+      </c>
+      <c r="F25" s="11">
+        <f>B9+D9</f>
+        <v>0.24320792066068198</v>
+      </c>
+      <c r="G25" s="11">
+        <f>B9+D9+F9</f>
+        <v>0.25176775993751233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="11">
+        <f>C8</f>
+        <v>2.8377429999999999E-2</v>
+      </c>
+      <c r="C26" s="11">
+        <f>C8+E8</f>
+        <v>3.2885008662342237E-2</v>
+      </c>
+      <c r="D26" s="11">
+        <f>C8+E8+G8</f>
+        <v>3.34235742140961E-2</v>
+      </c>
+      <c r="E26" s="11">
+        <f>C9</f>
+        <v>2.450921E-2</v>
+      </c>
+      <c r="F26" s="11">
+        <f>C9+E9</f>
+        <v>2.7082589634209581E-2</v>
+      </c>
+      <c r="G26" s="11">
+        <f>C9+E9+G9</f>
+        <v>2.7635436255689191E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:I1"/>
+  <mergeCells count="6">
+    <mergeCell ref="H1:M1"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DragPrediction/Data/Drag Values.xlsx
+++ b/DragPrediction/Data/Drag Values.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Documents\GitHub\NU-Python\DragPrediction\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hesham\Documents\GitHub\NU-Python\DragPrediction\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18793" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,17 +273,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2547,51 +2547,51 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.29296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1171875" customWidth="1"/>
+    <col min="3" max="3" width="12.87890625" customWidth="1"/>
+    <col min="4" max="4" width="19.87890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.87890625" customWidth="1"/>
+    <col min="6" max="7" width="12.87890625" customWidth="1"/>
+    <col min="8" max="8" width="17.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.29296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -2667,17 +2667,17 @@
         <v>8.9349429850081208E-2</v>
       </c>
       <c r="L3" s="9">
-        <f>(H3-J3)/H3*100</f>
+        <f t="shared" ref="L3:M9" si="0">(H3-J3)/H3*100</f>
         <v>22.48451930103715</v>
       </c>
       <c r="M3" s="9">
-        <f>(I3-K3)/I3*100</f>
+        <f t="shared" si="0"/>
         <v>48.921130282268365</v>
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2718,11 +2718,11 @@
         <v>3.9600000000000003E-2</v>
       </c>
       <c r="L4" s="10">
-        <f>(H4-J4)/H4*100</f>
+        <f t="shared" si="0"/>
         <v>27.521148720774825</v>
       </c>
       <c r="M4" s="10">
-        <f>(I4-K4)/I4*100</f>
+        <f t="shared" si="0"/>
         <v>62.488551849070163</v>
       </c>
       <c r="N4" s="17">
@@ -2732,7 +2732,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2773,11 +2773,11 @@
         <v>8.9499999999999996E-2</v>
       </c>
       <c r="L5" s="10">
-        <f>(H5-J5)/H5*100</f>
+        <f t="shared" si="0"/>
         <v>27.796553002904055</v>
       </c>
       <c r="M5" s="10">
-        <f>(I5-K5)/I5*100</f>
+        <f t="shared" si="0"/>
         <v>41.019022181901562</v>
       </c>
       <c r="N5" s="17">
@@ -2787,7 +2787,7 @@
         <v>7.1000000000000002E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2828,11 +2828,11 @@
         <v>6.2199999999999998E-2</v>
       </c>
       <c r="L6" s="10">
-        <f>(H6-J6)/H6*100</f>
+        <f t="shared" si="0"/>
         <v>28.939458449726551</v>
       </c>
       <c r="M6" s="10">
-        <f>(I6-K6)/I6*100</f>
+        <f t="shared" si="0"/>
         <v>54.861166906160832</v>
       </c>
       <c r="N6" s="17">
@@ -2842,7 +2842,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2883,11 +2883,11 @@
         <v>8.7099999999999997E-2</v>
       </c>
       <c r="L7" s="10">
-        <f>(H7-J7)/H7*100</f>
+        <f t="shared" si="0"/>
         <v>28.709527306561437</v>
       </c>
       <c r="M7" s="10">
-        <f>(I7-K7)/I7*100</f>
+        <f t="shared" si="0"/>
         <v>42.070106483306297</v>
       </c>
       <c r="N7" s="17">
@@ -2897,7 +2897,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2938,11 +2938,11 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="L8" s="10">
-        <f>(H8-J8)/H8*100</f>
+        <f t="shared" si="0"/>
         <v>29.710230218728185</v>
       </c>
       <c r="M8" s="10">
-        <f>(I8-K8)/I8*100</f>
+        <f t="shared" si="0"/>
         <v>52.332937375263931</v>
       </c>
       <c r="N8" s="18">
@@ -2952,7 +2952,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -2993,11 +2993,11 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="L9" s="10">
-        <f>(H9-J9)/H9*100</f>
+        <f t="shared" si="0"/>
         <v>30.394488012116238</v>
       </c>
       <c r="M9" s="10">
-        <f>(I9-K9)/I9*100</f>
+        <f t="shared" si="0"/>
         <v>42.094686790234597</v>
       </c>
       <c r="N9" s="17">
@@ -3007,7 +3007,7 @@
         <v>3.3E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -3026,15 +3026,15 @@
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -3045,15 +3045,15 @@
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -3064,14 +3064,14 @@
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
@@ -3083,14 +3083,14 @@
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
@@ -3102,7 +3102,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -3140,7 +3140,7 @@
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -3192,7 +3192,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A20" s="11"/>
       <c r="B20" s="26" t="s">
         <v>37</v>
@@ -3210,8 +3210,8 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A21" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="11">
@@ -3244,8 +3244,8 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A22" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="11">
@@ -3273,8 +3273,8 @@
         <v>2.7063722021030447E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A23" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="11">
@@ -3302,8 +3302,8 @@
         <v>0.26313247721902649</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A24" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="11">
@@ -3331,8 +3331,8 @@
         <v>2.7629316024036281E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A25" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="11">
@@ -3360,8 +3360,8 @@
         <v>0.25176775993751233</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A26" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="11">
@@ -3389,7 +3389,7 @@
         <v>2.7635436255689191E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B27" s="11"/>
     </row>
   </sheetData>

--- a/DragPrediction/Data/Drag Values.xlsx
+++ b/DragPrediction/Data/Drag Values.xlsx
@@ -5,14 +5,15 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hesham\Documents\GitHub\NU-Python\DragPrediction\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Documents\GitHub\NU-Python\DragPrediction\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18793" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="11460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overall Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="%F" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Isolated Vehicle</t>
   </si>
@@ -107,12 +108,6 @@
     <t>Base Diff.</t>
   </si>
   <si>
-    <t>Forebody Pref. %</t>
-  </si>
-  <si>
-    <t>Base Pred. %</t>
-  </si>
-  <si>
     <t>Wheels Contribution</t>
   </si>
   <si>
@@ -141,6 +136,30 @@
   </si>
   <si>
     <t>Follower</t>
+  </si>
+  <si>
+    <t>%F</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>max number of elements</t>
+  </si>
+  <si>
+    <t>150?</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>close to 5</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>number of road tappings</t>
   </si>
 </sst>
 </file>
@@ -171,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,12 +215,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -218,7 +231,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,21 +276,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,6 +292,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -388,6 +410,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Body</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -398,9 +423,35 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Analysis'!$A$21:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Front 0.5L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Front 0.5L Shear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Front 0.75L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Front 0.75L Shear</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Front 1L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Front 1L Shear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$26</c:f>
+              <c:f>'Overall Analysis'!$B$21:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -434,6 +485,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Body+Wheels</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -444,9 +498,35 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Analysis'!$A$21:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Front 0.5L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Front 0.5L Shear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Front 0.75L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Front 0.75L Shear</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Front 1L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Front 1L Shear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$21:$C$26</c:f>
+              <c:f>'Overall Analysis'!$C$21:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -480,6 +560,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Body+Wheels+Mirrors</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -490,9 +573,35 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Analysis'!$A$21:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Front 0.5L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Front 0.5L Shear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Front 0.75L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Front 0.75L Shear</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Front 1L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Front 1L Shear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$D$26</c:f>
+              <c:f>'Overall Analysis'!$D$21:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -543,6 +652,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -799,6 +909,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Body</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -809,9 +922,35 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Analysis'!$A$21:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Front 0.5L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Front 0.5L Shear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Front 0.75L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Front 0.75L Shear</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Front 1L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Front 1L Shear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$21:$E$26</c:f>
+              <c:f>'Overall Analysis'!$E$21:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -845,6 +984,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Body+Wheels</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -855,9 +997,35 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Analysis'!$A$21:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Front 0.5L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Front 0.5L Shear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Front 0.75L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Front 0.75L Shear</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Front 1L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Front 1L Shear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$21:$F$26</c:f>
+              <c:f>'Overall Analysis'!$F$21:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -891,6 +1059,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Body+Wheels+Mirrors</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -901,9 +1072,35 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Analysis'!$A$21:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Front 0.5L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Front 0.5L Shear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Front 0.75L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Front 0.75L Shear</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Front 1L Pressure</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Front 1L Shear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$21:$G$26</c:f>
+              <c:f>'Overall Analysis'!$G$21:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -954,6 +1151,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2545,53 +2743,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.29296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1171875" customWidth="1"/>
-    <col min="3" max="3" width="12.87890625" customWidth="1"/>
-    <col min="4" max="4" width="19.87890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.87890625" customWidth="1"/>
-    <col min="6" max="7" width="12.87890625" customWidth="1"/>
-    <col min="8" max="8" width="17.703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.29296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.29296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.29296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="24" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2631,14 +2827,8 @@
       <c r="M2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -2660,7 +2850,7 @@
         <f>21.44912/(0.5*1.18415*13.4112^2*1.151455)</f>
         <v>0.17492444594768361</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="16">
         <v>3.2162181938026856E-2</v>
       </c>
       <c r="K3" s="8">
@@ -2674,10 +2864,8 @@
         <f t="shared" si="0"/>
         <v>48.921130282268365</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2725,14 +2913,8 @@
         <f t="shared" si="0"/>
         <v>62.488551849070163</v>
       </c>
-      <c r="N4" s="17">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="O4" s="17">
-        <v>0.33300000000000002</v>
-      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2780,14 +2962,8 @@
         <f t="shared" si="0"/>
         <v>41.019022181901562</v>
       </c>
-      <c r="N5" s="17">
-        <v>7.9500000000000005E-3</v>
-      </c>
-      <c r="O5" s="17">
-        <v>7.1000000000000002E-4</v>
-      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2835,14 +3011,8 @@
         <f t="shared" si="0"/>
         <v>54.861166906160832</v>
       </c>
-      <c r="N6" s="17">
-        <v>1.2999999999999999E-4</v>
-      </c>
-      <c r="O6" s="17">
-        <v>2.5000000000000001E-4</v>
-      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2890,14 +3060,8 @@
         <f t="shared" si="0"/>
         <v>42.070106483306297</v>
       </c>
-      <c r="N7" s="17">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="O7" s="17">
-        <v>3.6999999999999998E-2</v>
-      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2945,14 +3109,8 @@
         <f t="shared" si="0"/>
         <v>52.332937375263931</v>
       </c>
-      <c r="N8" s="18">
-        <v>7.6000000000000004E-5</v>
-      </c>
-      <c r="O8" s="17">
-        <v>2E-3</v>
-      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -3000,185 +3158,311 @@
         <f t="shared" si="0"/>
         <v>42.094686790234597</v>
       </c>
-      <c r="N9" s="17">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="O9" s="17">
-        <v>3.3E-4</v>
-      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="B10" s="5">
+        <f>18.422298/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>0.14491810373605854</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.7034464531040105E-2</v>
+      </c>
+      <c r="D10" s="23">
+        <v>4.0190154194527726E-2</v>
+      </c>
+      <c r="E10" s="23">
+        <v>3.9950589297076929E-3</v>
+      </c>
+      <c r="F10" s="23">
+        <v>7.8922922486017472E-3</v>
+      </c>
+      <c r="G10" s="23">
+        <v>5.5611285058155364E-4</v>
+      </c>
+      <c r="H10" s="25">
+        <v>4.9416722388687148E-2</v>
+      </c>
+      <c r="I10" s="25">
+        <v>9.5501389213822341E-2</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="B11" s="5">
+        <f>24.63801705/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>0.1938137528066628</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.3191202074720297E-2</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1.7723549021326026E-2</v>
+      </c>
+      <c r="E11" s="23">
+        <v>2.2066433306492891E-3</v>
+      </c>
+      <c r="F11" s="23">
+        <v>8.9959710507998489E-3</v>
+      </c>
+      <c r="G11" s="23">
+        <v>5.4008440610467672E-4</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.11189019580904892</v>
+      </c>
+      <c r="I11" s="25">
+        <v>8.1923580203644208E-2</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="B12" s="23">
+        <f>27.59814224/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>0.21709943244099184</v>
+      </c>
+      <c r="C12" s="23">
+        <v>2.0505898102416559E-2</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1.3538516874291971E-2</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1.8338616595283826E-3</v>
+      </c>
+      <c r="F12" s="23">
+        <v>8.3935110377911706E-3</v>
+      </c>
+      <c r="G12" s="23">
+        <v>5.4411305163339129E-4</v>
+      </c>
+      <c r="H12" s="25">
+        <v>8.1852782145029349E-2</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.13524663267511233</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="B13" s="23">
+        <f>22.2952264/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>0.17538430505543395</v>
+      </c>
+      <c r="C13" s="23">
+        <v>2.7403389748523879E-2</v>
+      </c>
+      <c r="D13" s="23">
+        <v>4.2215639452793295E-2</v>
+      </c>
+      <c r="E13" s="23">
+        <v>4.1258268771948289E-3</v>
+      </c>
+      <c r="F13" s="23">
+        <v>8.0130029385400928E-3</v>
+      </c>
+      <c r="G13" s="23">
+        <v>5.6440566318064172E-4</v>
+      </c>
+      <c r="H13" s="23">
+        <v>5.0480187893592009E-2</v>
+      </c>
+      <c r="I13" s="23">
+        <v>0.12490413761461443</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="B14" s="23">
+        <f>25.46586164/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>0.2003259516740872</v>
+      </c>
+      <c r="C14" s="23">
+        <v>2.3888112033734889E-2</v>
+      </c>
+      <c r="D14" s="23">
+        <v>2.2106848771575732E-2</v>
+      </c>
+      <c r="E14" s="23">
+        <v>2.4738973488243549E-3</v>
+      </c>
+      <c r="F14" s="23">
+        <v>9.0748951532535118E-3</v>
+      </c>
+      <c r="G14" s="23">
+        <v>5.2475536778240524E-4</v>
+      </c>
+      <c r="H14" s="23">
+        <v>9.2383757370461936E-2</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0.10794218140264572</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="B15" s="23">
+        <f>27.02328633/(0.5*1.227634*13.4112^2*1.151455)</f>
+        <v>0.21257735661751603</v>
+      </c>
+      <c r="C15" s="23">
+        <v>2.0863746966304633E-2</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1.6396109808295263E-2</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1.9303782929027419E-3</v>
+      </c>
+      <c r="F15" s="23">
+        <v>8.9394899329271003E-3</v>
+      </c>
+      <c r="G15" s="23">
+        <v>5.3562302710880624E-4</v>
+      </c>
+      <c r="H15" s="23">
+        <v>7.1612362152152179E-2</v>
+      </c>
+      <c r="I15" s="23">
+        <v>0.14096499186943504</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="B16" s="23">
+        <v>0.19876012957652647</v>
+      </c>
+      <c r="C16" s="27">
+        <v>2.7481962863308795E-2</v>
+      </c>
+      <c r="D16" s="27">
+        <v>4.420000677190554E-2</v>
+      </c>
+      <c r="E16" s="27">
+        <v>4.2670855236784976E-3</v>
+      </c>
+      <c r="F16" s="27">
+        <v>7.1455670315535551E-3</v>
+      </c>
+      <c r="G16" s="27">
+        <v>5.4654748221111835E-4</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0.13859538084759548</v>
+      </c>
+      <c r="I16" s="25">
+        <v>6.0164693663774298E-2</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="B17" s="23">
+        <v>0.20793165857327361</v>
+      </c>
+      <c r="C17" s="27">
+        <v>2.4640541396873814E-2</v>
+      </c>
+      <c r="D17" s="27">
+        <v>2.4634075151374283E-2</v>
+      </c>
+      <c r="E17" s="27">
+        <v>2.6654713889205117E-3</v>
+      </c>
+      <c r="F17" s="27">
+        <v>8.8436057622097008E-3</v>
+      </c>
+      <c r="G17" s="27">
+        <v>5.4693034237920566E-4</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0.16026902652489311</v>
+      </c>
+      <c r="I17" s="25">
+        <v>4.766259035619045E-2</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="B18" s="23">
+        <v>0.22758579041522728</v>
+      </c>
+      <c r="C18" s="27">
+        <v>2.2081183703235682E-2</v>
+      </c>
+      <c r="D18" s="27">
+        <v>1.944454834903607E-2</v>
+      </c>
+      <c r="E18" s="27">
+        <v>2.1221411278218721E-3</v>
+      </c>
+      <c r="F18" s="27">
+        <v>8.9358713654867864E-3</v>
+      </c>
+      <c r="G18" s="27">
+        <v>5.7500248060058604E-4</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0.13402969271203233</v>
+      </c>
+      <c r="I18" s="25">
+        <v>9.3556094556614539E-2</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -3192,27 +3476,27 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="B20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A21" s="22" t="s">
-        <v>31</v>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="B21" s="11">
         <f>B4</f>
@@ -3240,13 +3524,17 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A22" s="22" t="s">
-        <v>32</v>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="B22" s="11">
         <f>C4</f>
@@ -3272,10 +3560,18 @@
         <f>C5+E5+G5</f>
         <v>2.7063722021030447E-2</v>
       </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A23" s="22" t="s">
-        <v>33</v>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="B23" s="11">
         <f>B6</f>
@@ -3301,10 +3597,18 @@
         <f>B7+D7+F7</f>
         <v>0.26313247721902649</v>
       </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A24" s="22" t="s">
-        <v>34</v>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="B24" s="11">
         <f>C6</f>
@@ -3330,10 +3634,12 @@
         <f>C7+E7+G7</f>
         <v>2.7629316024036281E-2</v>
       </c>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A25" s="22" t="s">
-        <v>35</v>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="B25" s="11">
         <f>B8</f>
@@ -3360,9 +3666,9 @@
         <v>0.25176775993751233</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A26" s="22" t="s">
-        <v>36</v>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="B26" s="11">
         <f>C8</f>
@@ -3389,7 +3695,7 @@
         <v>2.7635436255689191E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
     </row>
   </sheetData>
@@ -3405,4 +3711,57 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DragPrediction/Data/Drag Values.xlsx
+++ b/DragPrediction/Data/Drag Values.xlsx
@@ -285,15 +285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -308,6 +299,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2419,13 +2419,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:colOff>1257300</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
@@ -2746,7 +2746,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,26 +2766,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3170,22 +3170,22 @@
       <c r="C10" s="5">
         <v>2.7034464531040105E-2</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="20">
         <v>4.0190154194527726E-2</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="20">
         <v>3.9950589297076929E-3</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="20">
         <v>7.8922922486017472E-3</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="20">
         <v>5.5611285058155364E-4</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="22">
         <v>4.9416722388687148E-2</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="22">
         <v>9.5501389213822341E-2</v>
       </c>
       <c r="J10" s="5"/>
@@ -3204,22 +3204,22 @@
       <c r="C11" s="5">
         <v>2.3191202074720297E-2</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="21">
         <v>1.7723549021326026E-2</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="20">
         <v>2.2066433306492891E-3</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="20">
         <v>8.9959710507998489E-3</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="20">
         <v>5.4008440610467672E-4</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="22">
         <v>0.11189019580904892</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="22">
         <v>8.1923580203644208E-2</v>
       </c>
       <c r="J11" s="5"/>
@@ -3231,29 +3231,29 @@
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="20">
         <f>27.59814224/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>0.21709943244099184</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <v>2.0505898102416559E-2</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <v>1.3538516874291971E-2</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <v>1.8338616595283826E-3</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="20">
         <v>8.3935110377911706E-3</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="20">
         <v>5.4411305163339129E-4</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="22">
         <v>8.1852782145029349E-2</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="22">
         <v>0.13524663267511233</v>
       </c>
       <c r="J12" s="5"/>
@@ -3265,29 +3265,29 @@
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="20">
         <f>22.2952264/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>0.17538430505543395</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <v>2.7403389748523879E-2</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="20">
         <v>4.2215639452793295E-2</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="20">
         <v>4.1258268771948289E-3</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="20">
         <v>8.0130029385400928E-3</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="20">
         <v>5.6440566318064172E-4</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="20">
         <v>5.0480187893592009E-2</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="20">
         <v>0.12490413761461443</v>
       </c>
       <c r="J13" s="5"/>
@@ -3299,29 +3299,29 @@
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="20">
         <f>25.46586164/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>0.2003259516740872</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="20">
         <v>2.3888112033734889E-2</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="20">
         <v>2.2106848771575732E-2</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="20">
         <v>2.4738973488243549E-3</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="20">
         <v>9.0748951532535118E-3</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="20">
         <v>5.2475536778240524E-4</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="20">
         <v>9.2383757370461936E-2</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="20">
         <v>0.10794218140264572</v>
       </c>
       <c r="J14" s="5"/>
@@ -3333,29 +3333,29 @@
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="20">
         <f>27.02328633/(0.5*1.227634*13.4112^2*1.151455)</f>
         <v>0.21257735661751603</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="20">
         <v>2.0863746966304633E-2</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="20">
         <v>1.6396109808295263E-2</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="20">
         <v>1.9303782929027419E-3</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="20">
         <v>8.9394899329271003E-3</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="20">
         <v>5.3562302710880624E-4</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="20">
         <v>7.1612362152152179E-2</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="20">
         <v>0.14096499186943504</v>
       </c>
       <c r="J15" s="5"/>
@@ -3367,28 +3367,28 @@
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="20">
         <v>0.19876012957652647</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="24">
         <v>2.7481962863308795E-2</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="24">
         <v>4.420000677190554E-2</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="24">
         <v>4.2670855236784976E-3</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="24">
         <v>7.1455670315535551E-3</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="24">
         <v>5.4654748221111835E-4</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="22">
         <v>0.13859538084759548</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="22">
         <v>6.0164693663774298E-2</v>
       </c>
       <c r="J16" s="5"/>
@@ -3400,28 +3400,28 @@
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="20">
         <v>0.20793165857327361</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="24">
         <v>2.4640541396873814E-2</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="24">
         <v>2.4634075151374283E-2</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="24">
         <v>2.6654713889205117E-3</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="24">
         <v>8.8436057622097008E-3</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="24">
         <v>5.4693034237920566E-4</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="22">
         <v>0.16026902652489311</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="22">
         <v>4.766259035619045E-2</v>
       </c>
       <c r="J17" s="5"/>
@@ -3433,28 +3433,28 @@
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="20">
         <v>0.22758579041522728</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="24">
         <v>2.2081183703235682E-2</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="24">
         <v>1.944454834903607E-2</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="24">
         <v>2.1221411278218721E-3</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="24">
         <v>8.9358713654867864E-3</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="24">
         <v>5.7500248060058604E-4</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="22">
         <v>0.13402969271203233</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="22">
         <v>9.3556094556614539E-2</v>
       </c>
       <c r="J18" s="5"/>
@@ -3478,16 +3478,16 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -3634,8 +3634,8 @@
         <f>C7+E7+G7</f>
         <v>2.7629316024036281E-2</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
@@ -3724,10 +3724,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>38</v>
       </c>
     </row>
